--- a/InputFiles/TC02_Canine_Filter_Study-NCATS.xlsx
+++ b/InputFiles/TC02_Canine_Filter_Study-NCATS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9109F3E0-1099-48F2-A7BB-EA5D11804616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED954E89-B3D1-4F10-A2C9-00D2A0EF37BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="610" windowWidth="19200" windowHeight="10190" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -109,14 +109,12 @@
  MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
 WHERE s.clinical_study_designation IN ['NCATS-COP01'] 
 WITH DISTINCT f, parent, c, demo, diag, s
-RETURN coalesce(f.file_name, '') AS `File Name`,
-        coalesce(f.file_type, '') AS `File Type`,
+RETURN coalesce(f.file_name, '') AS `File Name`, 
         coalesce(labels(parent)[0], '') AS `Association`,
         coalesce(f.file_description, '') AS `Description`,
         coalesce(f.file_format, '') AS `Format`,
         coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`,
-        coalesce(demo.breed,'') AS Breed , 
+        coalesce(c.case_id, '') AS `Case ID`, 
         coalesce(diag.disease_term,'') AS Diagnosis , 
         coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
@@ -490,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,7 +551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
